--- a/medicine/Handicap/Syndrome_d’Opitz_lié_à_l’X/Syndrome_d’Opitz_lié_à_l’X.xlsx
+++ b/medicine/Handicap/Syndrome_d’Opitz_lié_à_l’X/Syndrome_d’Opitz_lié_à_l’X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome d’Opitz lié à l’X est une maladie congénitale génétique, transmise par le chromosome sexuel X, associant des anomalies de la face et du visage, du pharynx, du larynx et des anomalies génitales.
 Un léger retard mental atteint 50 % des garçons touchés par cette maladie. La moitié des garçons atteints présentent une division des lèvres ou du palais.  Dans une même famille, il peut exister des formes très différentes de cette pathologie chez les garçons atteints.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome d’Opitz type I
 BBB syndrome lié a l'X
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène MIB1 du locus p22 du chromosome X qui code la protéine midline 1
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1 sur 50 000 à 100 000 garçons.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,22 +627,18 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Anomalies de la face
-Front proéminent
+          <t>Anomalies de la face</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Front proéminent
 Hypertélorisme
 Nez large
 Narines antéversées
 Lèvre fine
-Division de la lèvre
-Anomalies du pharynx, du larynx, de l’œsophage
-Division du pharynx
-Reflux œsophagien
-Anomalies génitales
-Hypospadias
-Cryptorchidie
-Autres anomalies
-Agénésie du corps calleux
-Cardiopathies congénitales</t>
+Division de la lèvre</t>
         </is>
       </c>
     </row>
@@ -634,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,21 +663,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le diagnostic de cette maladie est essentiellement clinique. Pour parler de syndrome d'Opitz  lié à l’X il faut obligatoirement : 
-un hypertélorisme
-associé soit à une anomalie génitale externe (hypospadias) ou à une anomalie du larynx, du pharynx ou de la trachée
-une histoire familiale de maladie liée à l’X
-Anténatal
-Le diagnostic anténatal repose essentiellement sur la recherche de signes échographiques chez les fœtus masculins en cas de famille atteinte
-Différentiel
-Essentiellement avec l’Opitz syndrome type II dont le gène est différent mais dont la différenciation clinique est subtile
-Le syndrome FG
-</t>
+          <t>Anomalies du pharynx, du larynx, de l’œsophage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Division du pharynx
+Reflux œsophagien</t>
         </is>
       </c>
     </row>
@@ -673,7 +685,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -688,13 +700,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mode transmission</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Transmission liée à l’X 
-</t>
+          <t>Anomalies génitales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hypospadias
+Cryptorchidie</t>
         </is>
       </c>
     </row>
@@ -704,7 +722,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -719,10 +737,192 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres anomalies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Agénésie du corps calleux
+Cardiopathies congénitales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le diagnostic de cette maladie est essentiellement clinique. Pour parler de syndrome d'Opitz  lié à l’X il faut obligatoirement : 
+un hypertélorisme
+associé soit à une anomalie génitale externe (hypospadias) ou à une anomalie du larynx, du pharynx ou de la trachée
+une histoire familiale de maladie liée à l’X</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Anténatal</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic anténatal repose essentiellement sur la recherche de signes échographiques chez les fœtus masculins en cas de famille atteinte
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Différentiel</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Essentiellement avec l’Opitz syndrome type II dont le gène est différent mais dont la différenciation clinique est subtile
+Le syndrome FG
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mode transmission</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission liée à l’X 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Syndrome_d’Opitz_lié_à_l’X</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%E2%80%99Opitz_li%C3%A9_%C3%A0_l%E2%80%99X</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Site en français de renseignement sur les maladies rares et les médicaments orphelins
 Site en anglais Incontournable pour les maladies génétiques
